--- a/PREGAME/1. ELICITACIÓN/1.3 Historias de Usuario/G1_Matriz de Marco de Trabajo HU_V2.0.xlsx
+++ b/PREGAME/1. ELICITACIÓN/1.3 Historias de Usuario/G1_Matriz de Marco de Trabajo HU_V2.0.xlsx
@@ -1,14 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ESPE\Analisis&amp;Diseño\27837_G1_ADS\PREGAME\1. ELICITACIÓN\1.3 Historias de Usuario\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B9EE28-F126-4852-9673-2D189B2275BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Formato descripción HU" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Historia de Usuario" sheetId="2" r:id="rId5"/>
+    <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
+    <sheet name="Historia de Usuario" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="zqQjEeih5K8NWczfqLGaZHv5HRqGCKJmm/RpsPz/4HQ="/>
     </ext>
@@ -371,85 +390,88 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Arial Narrow"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Narrow"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
     </font>
@@ -459,7 +481,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -511,27 +533,39 @@
     </fill>
   </fills>
   <borders count="31">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -541,6 +575,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -555,6 +590,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -565,6 +601,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -573,6 +610,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -583,6 +621,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -591,12 +630,14 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -605,6 +646,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -616,27 +658,39 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -645,16 +699,27 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -663,72 +728,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -739,14 +743,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -757,156 +754,295 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="72">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="5" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="7" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FFFFC7CE"/>
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -918,30 +1054,33 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -952,11 +1091,17 @@
     <xdr:ext cx="1066800" cy="1162050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="2" name="image1.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -980,11 +1125,17 @@
     <xdr:ext cx="1095375" cy="1162050"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="3" name="image2.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1002,7 +1153,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1192,31 +1343,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:Z979"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.63"/>
-    <col customWidth="1" min="2" max="2" width="6.63"/>
-    <col customWidth="1" min="3" max="5" width="20.63"/>
-    <col customWidth="1" min="6" max="6" width="13.13"/>
-    <col customWidth="1" min="7" max="7" width="32.5"/>
-    <col customWidth="1" min="8" max="12" width="10.63"/>
-    <col customWidth="1" min="13" max="13" width="32.75"/>
-    <col customWidth="1" min="14" max="15" width="20.63"/>
-    <col customWidth="1" min="16" max="26" width="9.38"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="6.625" customWidth="1"/>
+    <col min="3" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="32.5" customWidth="1"/>
+    <col min="8" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="14" max="15" width="20.625" customWidth="1"/>
+    <col min="16" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1244,7 +1398,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1272,24 +1426,24 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" ht="45.0" customHeight="1">
+    <row r="3" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="6"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1302,7 +1456,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1330,48 +1484,48 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" ht="60.0" customHeight="1">
+    <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P5" s="1"/>
@@ -1386,48 +1540,48 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" ht="75.75" customHeight="1">
+    <row r="6" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="9">
-        <v>45778.0</v>
-      </c>
-      <c r="J6" s="10">
-        <v>45979.0</v>
-      </c>
-      <c r="K6" s="11" t="s">
+      <c r="I6" s="6">
+        <v>45778</v>
+      </c>
+      <c r="J6" s="7">
+        <v>45979</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="M6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P6" s="1"/>
@@ -1442,48 +1596,48 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" ht="75.75" customHeight="1">
+    <row r="7" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="J7" s="10">
-        <v>45980.0</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>45980</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="P7" s="1"/>
@@ -1498,48 +1652,48 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" ht="75.75" customHeight="1">
+    <row r="8" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="9">
-        <v>45778.0</v>
-      </c>
-      <c r="J8" s="10">
-        <v>45981.0</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="I8" s="6">
+        <v>45778</v>
+      </c>
+      <c r="J8" s="7">
+        <v>45981</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="6" t="s">
         <v>42</v>
       </c>
       <c r="P8" s="1"/>
@@ -1554,48 +1708,48 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" ht="75.75" customHeight="1">
+    <row r="9" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="10">
-        <v>45982.0</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="J9" s="7">
+        <v>45982</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="6" t="s">
         <v>51</v>
       </c>
       <c r="P9" s="1"/>
@@ -1610,48 +1764,48 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" ht="75.75" customHeight="1">
+    <row r="10" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="J10" s="10">
-        <v>45983.0</v>
-      </c>
-      <c r="K10" s="11" t="s">
+      <c r="I10" s="6">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7">
+        <v>45983</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="6" t="s">
         <v>60</v>
       </c>
       <c r="P10" s="1"/>
@@ -1666,48 +1820,48 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" ht="75.75" customHeight="1">
+    <row r="11" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="J11" s="10">
-        <v>45984.0</v>
-      </c>
-      <c r="K11" s="11" t="s">
+      <c r="I11" s="6">
+        <v>3</v>
+      </c>
+      <c r="J11" s="7">
+        <v>45984</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="6" t="s">
         <v>71</v>
       </c>
       <c r="P11" s="1"/>
@@ -1722,48 +1876,48 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" ht="64.5" customHeight="1">
+    <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="J12" s="10">
-        <v>45985.0</v>
-      </c>
-      <c r="K12" s="11" t="s">
+      <c r="I12" s="6">
+        <v>3</v>
+      </c>
+      <c r="J12" s="7">
+        <v>45985</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="6" t="s">
         <v>80</v>
       </c>
       <c r="P12" s="1"/>
@@ -1778,48 +1932,48 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" ht="61.5" customHeight="1">
+    <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="J13" s="10">
-        <v>45986.0</v>
-      </c>
-      <c r="K13" s="11" t="s">
+      <c r="I13" s="6">
+        <v>4</v>
+      </c>
+      <c r="J13" s="7">
+        <v>45986</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="6" t="s">
         <v>89</v>
       </c>
       <c r="P13" s="1"/>
@@ -1834,48 +1988,48 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" ht="70.5" customHeight="1">
+    <row r="14" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="J14" s="10">
-        <v>45987.0</v>
-      </c>
-      <c r="K14" s="11" t="s">
+      <c r="I14" s="6">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7">
+        <v>45987</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="6" t="s">
         <v>97</v>
       </c>
       <c r="P14" s="1"/>
@@ -1890,48 +2044,48 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" ht="61.5" customHeight="1">
+    <row r="15" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I15" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="J15" s="10">
-        <v>45988.0</v>
-      </c>
-      <c r="K15" s="11" t="s">
+      <c r="I15" s="6">
+        <v>6</v>
+      </c>
+      <c r="J15" s="7">
+        <v>45988</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="6" t="s">
         <v>105</v>
       </c>
       <c r="P15" s="1"/>
@@ -1946,7 +2100,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" ht="19.5" customHeight="1">
+    <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1974,7 +2128,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" ht="19.5" customHeight="1">
+    <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2002,7 +2156,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2030,7 +2184,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2058,7 +2212,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2072,7 +2226,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2086,7 +2240,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2100,7 +2254,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2114,7 +2268,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2142,7 +2296,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2170,7 +2324,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2198,7 +2352,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2226,7 +2380,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2254,7 +2408,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2282,7 +2436,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2310,7 +2464,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2338,7 +2492,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2366,7 +2520,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2394,7 +2548,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2422,7 +2576,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2450,7 +2604,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2478,7 +2632,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2506,7 +2660,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2534,7 +2688,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2562,7 +2716,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2590,7 +2744,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2618,7 +2772,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2646,7 +2800,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2674,7 +2828,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2702,7 +2856,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2730,7 +2884,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2758,7 +2912,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2786,7 +2940,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2814,7 +2968,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2842,7 +2996,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2870,7 +3024,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2898,7 +3052,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2926,7 +3080,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2954,7 +3108,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2982,7 +3136,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3010,7 +3164,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3038,7 +3192,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3066,7 +3220,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3094,7 +3248,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3122,7 +3276,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3150,7 +3304,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3178,7 +3332,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3206,7 +3360,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3234,7 +3388,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3262,7 +3416,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3290,7 +3444,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3318,7 +3472,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3346,7 +3500,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3374,7 +3528,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3402,7 +3556,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3430,7 +3584,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3458,7 +3612,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3486,7 +3640,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3514,7 +3668,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3542,7 +3696,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3570,7 +3724,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3598,7 +3752,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3626,7 +3780,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3654,7 +3808,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3682,7 +3836,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3710,7 +3864,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3738,7 +3892,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3766,7 +3920,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3794,7 +3948,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3822,7 +3976,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3850,7 +4004,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3878,7 +4032,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3906,7 +4060,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3934,7 +4088,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3962,7 +4116,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3990,7 +4144,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4018,7 +4172,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4046,7 +4200,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4074,7 +4228,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4102,7 +4256,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4130,7 +4284,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4158,7 +4312,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4186,7 +4340,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4214,7 +4368,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4242,7 +4396,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4270,7 +4424,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4298,7 +4452,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4326,7 +4480,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4354,7 +4508,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4382,7 +4536,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4410,7 +4564,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4438,7 +4592,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4466,7 +4620,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4494,7 +4648,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4522,7 +4676,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4550,7 +4704,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4578,7 +4732,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4606,7 +4760,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4634,7 +4788,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4662,7 +4816,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4690,7 +4844,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4718,7 +4872,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4746,7 +4900,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4774,7 +4928,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -4802,7 +4956,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -4830,7 +4984,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -4858,7 +5012,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -4886,7 +5040,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -4914,7 +5068,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -4942,7 +5096,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -4970,7 +5124,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -4998,7 +5152,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5026,7 +5180,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5054,7 +5208,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5082,7 +5236,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5110,7 +5264,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5138,7 +5292,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5166,7 +5320,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5194,7 +5348,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5222,7 +5376,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5250,7 +5404,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5278,7 +5432,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5306,7 +5460,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5334,7 +5488,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5362,7 +5516,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5390,7 +5544,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5418,7 +5572,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5446,7 +5600,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5474,7 +5628,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5502,7 +5656,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5530,7 +5684,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5558,7 +5712,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5586,7 +5740,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5614,7 +5768,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5642,7 +5796,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5670,7 +5824,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5698,7 +5852,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5726,7 +5880,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5754,7 +5908,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -5782,7 +5936,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -5810,7 +5964,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -5838,7 +5992,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -5866,7 +6020,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -5894,7 +6048,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -5922,7 +6076,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -5950,7 +6104,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -5978,7 +6132,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6006,7 +6160,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6034,7 +6188,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6062,7 +6216,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6090,7 +6244,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6118,7 +6272,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6146,7 +6300,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6174,7 +6328,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6202,7 +6356,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6230,7 +6384,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6258,7 +6412,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6286,7 +6440,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6314,7 +6468,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6342,7 +6496,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6370,7 +6524,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6398,7 +6552,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6426,7 +6580,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6454,7 +6608,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6482,7 +6636,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6510,7 +6664,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6538,7 +6692,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6566,7 +6720,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6594,7 +6748,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6622,7 +6776,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6650,7 +6804,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6678,7 +6832,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6706,7 +6860,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6734,7 +6888,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6762,7 +6916,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -6790,7 +6944,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -6818,7 +6972,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -6846,7 +7000,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -6874,7 +7028,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -6902,7 +7056,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -6930,7 +7084,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -6958,7 +7112,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -6986,7 +7140,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7014,7 +7168,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7042,7 +7196,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7070,7 +7224,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7098,7 +7252,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7126,7 +7280,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7154,7 +7308,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7182,7 +7336,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7210,7 +7364,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7238,7 +7392,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7266,7 +7420,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7294,7 +7448,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7322,7 +7476,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7350,7 +7504,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7378,7 +7532,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7406,7 +7560,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7434,7 +7588,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7462,7 +7616,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7490,770 +7644,770 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:O3"/>
@@ -8288,2122 +8442,2119 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10:L15">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K10:L15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.5511811023622047" footer="0.0" header="0.0" left="0.31496062992125984" right="0.31496062992125984" top="0.7480314960629921"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.55118110236220474" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A2:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.38"/>
-    <col customWidth="1" min="2" max="2" width="2.63"/>
-    <col customWidth="1" min="3" max="15" width="10.63"/>
-    <col customWidth="1" min="16" max="16" width="2.63"/>
-    <col customWidth="1" min="17" max="26" width="9.38"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="2.625" customWidth="1"/>
+    <col min="3" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="2.625" customWidth="1"/>
+    <col min="17" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="15.0" hidden="1" customHeight="1"/>
-    <row r="3" ht="15.0" hidden="1" customHeight="1"/>
-    <row r="4" hidden="1">
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" hidden="1">
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" ht="39.75" customHeight="1">
-      <c r="B6" s="15" t="s">
+    <row r="2" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:26" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" ht="9.75" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-    </row>
-    <row r="8" ht="9.75" customHeight="1">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="16"/>
-    </row>
-    <row r="9" ht="30.0" customHeight="1">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24" t="s">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
+    </row>
+    <row r="7" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26" t="s">
+      <c r="F9" s="36"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="16"/>
-    </row>
-    <row r="10" ht="30.0" customHeight="1">
-      <c r="B10" s="23"/>
-      <c r="C10" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31" t="str">
+      <c r="I9" s="36"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="19"/>
+      <c r="C10" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="70" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O15,5,0)</f>
         <v>Usuario adulto mayor / Cuidador</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="31" t="str">
+      <c r="F10" s="71"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="39" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O15,11,0)</f>
         <v>No iniciado</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="16"/>
-    </row>
-    <row r="11" ht="9.75" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-    </row>
-    <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="s">
+      <c r="I10" s="36"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="26" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="26" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-    </row>
-    <row r="13" ht="30.0" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="35">
+      <c r="I12" s="36"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="29">
         <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O15,8,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31" t="str">
+        <v>6</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="39" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O15,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="31" t="str">
+      <c r="F13" s="36"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="39" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O15,7,0)</f>
-        <v>Marcelo Acuña</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-    </row>
-    <row r="14" ht="9.75" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-    </row>
-    <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="36" t="s">
+        <v>Christian Bonifaz</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="37" t="str">
+      <c r="D15" s="53" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O15,3,0)</f>
-        <v>Consultar la lista de medicamentos.</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="36" t="s">
+        <v>Escanear recetas médicas con cámara (OCR).</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="37" t="str">
+      <c r="H15" s="53" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O15,4,0)</f>
-        <v>Para revisar rápidamente horarios, dosis y próximas tomas.</v>
-      </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="36" t="s">
+        <v>Para automatizar el ingreso de medicamentos.</v>
+      </c>
+      <c r="I15" s="50"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="41" t="str">
+      <c r="M15" s="60" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O15,6,0)</f>
-        <v>Mostrar lista con nombre, dosis, frecuencia, ícono y detalles.</v>
-      </c>
-      <c r="N15" s="40"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-    </row>
-    <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="43"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-    </row>
-    <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-    </row>
-    <row r="18" ht="9.75" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-    </row>
-    <row r="19" ht="19.5" customHeight="1">
-      <c r="B19" s="23"/>
-      <c r="C19" s="49" t="s">
+        <v>Capturar imagen, procesar texto con OCR y validar antes de guardar.</v>
+      </c>
+      <c r="N15" s="61"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+    </row>
+    <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+    </row>
+    <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+    </row>
+    <row r="18" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+    </row>
+    <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="19"/>
+      <c r="C19" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="50" t="str">
+      <c r="D19" s="44"/>
+      <c r="E19" s="54" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O15,14,0)</f>
-        <v>Consultar medicamentos</v>
-      </c>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" ht="19.5" customHeight="1">
-      <c r="B20" s="23"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" ht="9.75" customHeight="1">
-      <c r="B21" s="23"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="56" t="s">
+        <v>Reconocimiento de recetas</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="19"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="19"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="57" t="str">
+      <c r="D22" s="44"/>
+      <c r="E22" s="69" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O15,12,0)</f>
-        <v>Se muestra la lista completa y coincide con la base registrada.</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="56" t="s">
+        <v>Se prueba con distintas recetas y se valida la correcta extracción de texto.</v>
+      </c>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="58" t="str">
+      <c r="K22" s="44"/>
+      <c r="L22" s="53" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O15,13,0)</f>
-        <v>CRUD - Leer</v>
-      </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-      <c r="Z22" s="16"/>
-    </row>
-    <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="43"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-    </row>
-    <row r="24" ht="19.5" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-    </row>
-    <row r="25" ht="9.75" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-    </row>
-    <row r="26" ht="19.5" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-    </row>
-    <row r="27" ht="19.5" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-    </row>
-    <row r="28" ht="19.5" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-    </row>
-    <row r="29" ht="19.5" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-    </row>
-    <row r="30" ht="19.5" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-    </row>
-    <row r="31" ht="19.5" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-    </row>
-    <row r="32" ht="19.5" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-    </row>
-    <row r="33" ht="19.5" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-    </row>
-    <row r="34" ht="19.5" customHeight="1">
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-    </row>
-    <row r="35" ht="19.5" customHeight="1">
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-    </row>
-    <row r="36" ht="19.5" customHeight="1">
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-    </row>
-    <row r="37" ht="19.5" customHeight="1">
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-    </row>
-    <row r="38" ht="19.5" customHeight="1">
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-    </row>
-    <row r="39" ht="19.5" customHeight="1">
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-    </row>
-    <row r="40" ht="19.5" customHeight="1">
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-    </row>
-    <row r="41" ht="19.5" customHeight="1">
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-    </row>
-    <row r="42" ht="19.5" customHeight="1">
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-    </row>
-    <row r="43" ht="19.5" customHeight="1">
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-    </row>
-    <row r="44" ht="19.5" customHeight="1">
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-    </row>
-    <row r="45" ht="19.5" customHeight="1">
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-    </row>
-    <row r="46" ht="19.5" customHeight="1">
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-    </row>
-    <row r="47" ht="19.5" customHeight="1">
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-    </row>
-    <row r="48" ht="19.5" customHeight="1">
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-    </row>
-    <row r="49" ht="19.5" customHeight="1">
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-    </row>
-    <row r="50" ht="19.5" customHeight="1">
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-    </row>
-    <row r="51" ht="19.5" customHeight="1">
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-    </row>
-    <row r="52" ht="19.5" customHeight="1">
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-    </row>
-    <row r="53" ht="19.5" customHeight="1">
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-    </row>
-    <row r="54" ht="19.5" customHeight="1">
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+        <v>Riesgo técnico alto por reconocimiento.</v>
+      </c>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+    </row>
+    <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+    </row>
+    <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+    </row>
+    <row r="25" spans="1:26" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+    </row>
+    <row r="26" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+    </row>
+    <row r="27" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+    </row>
+    <row r="28" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+    </row>
+    <row r="29" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+    </row>
+    <row r="31" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+    </row>
+    <row r="32" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+    </row>
+    <row r="33" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+    </row>
+    <row r="34" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+    </row>
+    <row r="35" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+    </row>
+    <row r="36" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+    </row>
+    <row r="37" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+    </row>
+    <row r="38" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+    </row>
+    <row r="39" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+    </row>
+    <row r="40" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+    </row>
+    <row r="41" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+    </row>
+    <row r="42" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+    </row>
+    <row r="43" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+    </row>
+    <row r="44" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+    </row>
+    <row r="45" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+    </row>
+    <row r="46" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+    </row>
+    <row r="47" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+    </row>
+    <row r="48" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+    </row>
+    <row r="49" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+    </row>
+    <row r="50" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+    </row>
+    <row r="51" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+    </row>
+    <row r="52" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+    </row>
+    <row r="53" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+    </row>
+    <row r="54" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+    </row>
+    <row r="55" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+    </row>
+    <row r="56" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="E22:H24"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="L22:O24"/>
     <mergeCell ref="H12:I12"/>
@@ -10414,35 +10565,53 @@
     <mergeCell ref="L15:L17"/>
     <mergeCell ref="M15:O17"/>
     <mergeCell ref="E19:O20"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C22:D24"/>
+    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Terminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"En proceso"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:I11">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"No Iniciado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10:C11">
-      <formula1>'Formato descripción HU'!$B$6:$B$15</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.7480314960629921" footer="0.0" header="0.0" left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>'Formato descripción HU'!$B$6:$B$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10:C11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>